--- a/src/test/resources/vslot_input_main.xlsx
+++ b/src/test/resources/vslot_input_main.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="576" windowWidth="20172" windowHeight="12156"/>
+    <workbookView xWindow="396" yWindow="576" windowWidth="20172" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="slot_input" sheetId="1" r:id="rId1"/>
-    <sheet name="slot_input_3v3" sheetId="7" r:id="rId2"/>
-    <sheet name="slot_input_prototype" sheetId="6" r:id="rId3"/>
-    <sheet name="메모" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="slot_input_stage1" sheetId="8" r:id="rId1"/>
+    <sheet name="slot_input" sheetId="1" r:id="rId2"/>
+    <sheet name="slot_input_3v3" sheetId="7" r:id="rId3"/>
+    <sheet name="slot_input_prototype" sheetId="6" r:id="rId4"/>
+    <sheet name="메모" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="169">
   <si>
     <t>● 범례</t>
   </si>
@@ -1769,11 +1770,91 @@
     <t>1,1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Bonus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>W-N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,###"/>
     <numFmt numFmtId="177" formatCode="0.00000000"/>
@@ -1880,7 +1961,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,6 +2002,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -2039,7 +2132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2113,6 +2206,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2466,11 +2563,2513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98058DF8-9E5A-4F53-AE1B-F220F1017BD7}">
+  <dimension ref="A1:N176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="13" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>7</v>
+      </c>
+      <c r="B17" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="10">
+        <v>8</v>
+      </c>
+      <c r="B18" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="10">
+        <v>9</v>
+      </c>
+      <c r="B19" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="10">
+        <v>10</v>
+      </c>
+      <c r="B20" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="10">
+        <v>11</v>
+      </c>
+      <c r="B21" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="10">
+        <v>12</v>
+      </c>
+      <c r="B22" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="10">
+        <v>13</v>
+      </c>
+      <c r="B23" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="10">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="10">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="10">
+        <v>16</v>
+      </c>
+      <c r="B26" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="10">
+        <v>17</v>
+      </c>
+      <c r="B27" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="10">
+        <v>18</v>
+      </c>
+      <c r="B28" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="47"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="59">
+        <v>1</v>
+      </c>
+      <c r="B39" s="59">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="56"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="48"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="59">
+        <v>5</v>
+      </c>
+      <c r="C45" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C47" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C48" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C49" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C50" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="8">
+        <v>5</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="G55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="61">
+        <f>B11</f>
+        <v>5000</v>
+      </c>
+      <c r="E56" s="61">
+        <f>B13</f>
+        <v>500</v>
+      </c>
+      <c r="F56" s="61">
+        <f>B19</f>
+        <v>50</v>
+      </c>
+      <c r="G56" s="61">
+        <f>B26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="60">
+        <v>100</v>
+      </c>
+      <c r="E57" s="60">
+        <v>25</v>
+      </c>
+      <c r="F57" s="60">
+        <v>5</v>
+      </c>
+      <c r="G57" s="60"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="61">
+        <f>B12</f>
+        <v>1000</v>
+      </c>
+      <c r="E59" s="61">
+        <f>B15</f>
+        <v>200</v>
+      </c>
+      <c r="F59" s="61">
+        <f>B20</f>
+        <v>40</v>
+      </c>
+      <c r="G59" s="61">
+        <f>B27</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="61">
+        <f>B13</f>
+        <v>500</v>
+      </c>
+      <c r="E60" s="61">
+        <f>B16</f>
+        <v>150</v>
+      </c>
+      <c r="F60" s="61">
+        <f>B21</f>
+        <v>30</v>
+      </c>
+      <c r="G60" s="61">
+        <f>B28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="61">
+        <f>B14</f>
+        <v>300</v>
+      </c>
+      <c r="E61" s="61">
+        <f>B17</f>
+        <v>100</v>
+      </c>
+      <c r="F61" s="61">
+        <f>B22</f>
+        <v>25</v>
+      </c>
+      <c r="G61" s="61">
+        <f>B28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="61">
+        <f>B15</f>
+        <v>200</v>
+      </c>
+      <c r="E62" s="61">
+        <f>B18</f>
+        <v>75</v>
+      </c>
+      <c r="F62" s="61">
+        <f>B23</f>
+        <v>20</v>
+      </c>
+      <c r="G62" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="61">
+        <f>B15</f>
+        <v>200</v>
+      </c>
+      <c r="E63" s="61">
+        <f>B18</f>
+        <v>75</v>
+      </c>
+      <c r="F63" s="61">
+        <f>B23</f>
+        <v>20</v>
+      </c>
+      <c r="G63" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="61">
+        <f>B17</f>
+        <v>100</v>
+      </c>
+      <c r="E64" s="61">
+        <f>B19</f>
+        <v>50</v>
+      </c>
+      <c r="F64" s="61">
+        <f>B24</f>
+        <v>15</v>
+      </c>
+      <c r="G64" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="61">
+        <f>B17</f>
+        <v>100</v>
+      </c>
+      <c r="E65" s="61">
+        <f>B19</f>
+        <v>50</v>
+      </c>
+      <c r="F65" s="61">
+        <f>B24</f>
+        <v>15</v>
+      </c>
+      <c r="G65" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="61">
+        <f>B19</f>
+        <v>50</v>
+      </c>
+      <c r="E66" s="61">
+        <f>B22</f>
+        <v>25</v>
+      </c>
+      <c r="F66" s="61">
+        <f>B25</f>
+        <v>10</v>
+      </c>
+      <c r="G66" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="61">
+        <f>B19</f>
+        <v>50</v>
+      </c>
+      <c r="E67" s="61">
+        <f>B22</f>
+        <v>25</v>
+      </c>
+      <c r="F67" s="61">
+        <f>B25</f>
+        <v>10</v>
+      </c>
+      <c r="G67" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A76" s="47"/>
+      <c r="B76" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="13">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13">
+        <v>1</v>
+      </c>
+      <c r="F80" s="13">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="13">
+        <v>3</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="13">
+        <v>2</v>
+      </c>
+      <c r="G81" s="13">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="13">
+        <v>2</v>
+      </c>
+      <c r="D82" s="13">
+        <v>3</v>
+      </c>
+      <c r="E82" s="13">
+        <v>3</v>
+      </c>
+      <c r="F82" s="13">
+        <v>3</v>
+      </c>
+      <c r="G82" s="13">
+        <v>4</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3</v>
+      </c>
+      <c r="D83" s="13">
+        <v>3</v>
+      </c>
+      <c r="E83" s="13">
+        <v>3</v>
+      </c>
+      <c r="F83" s="13">
+        <v>2</v>
+      </c>
+      <c r="G83" s="13">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="13">
+        <v>3</v>
+      </c>
+      <c r="D84" s="13">
+        <v>3</v>
+      </c>
+      <c r="E84" s="13">
+        <v>3</v>
+      </c>
+      <c r="F84" s="13">
+        <v>4</v>
+      </c>
+      <c r="G84" s="13">
+        <v>4</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="13">
+        <v>4</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2</v>
+      </c>
+      <c r="E85" s="13">
+        <v>3</v>
+      </c>
+      <c r="F85" s="13">
+        <v>3</v>
+      </c>
+      <c r="G85" s="13">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="13">
+        <v>4</v>
+      </c>
+      <c r="D86" s="13">
+        <v>3</v>
+      </c>
+      <c r="E86" s="13">
+        <v>4</v>
+      </c>
+      <c r="F86" s="13">
+        <v>3</v>
+      </c>
+      <c r="G86" s="13">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="13">
+        <v>3</v>
+      </c>
+      <c r="D87" s="13">
+        <v>4</v>
+      </c>
+      <c r="E87" s="13">
+        <v>4</v>
+      </c>
+      <c r="F87" s="13">
+        <v>4</v>
+      </c>
+      <c r="G87" s="13">
+        <v>3</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="13">
+        <v>4</v>
+      </c>
+      <c r="D88" s="13">
+        <v>4</v>
+      </c>
+      <c r="E88" s="13">
+        <v>4</v>
+      </c>
+      <c r="F88" s="13">
+        <v>5</v>
+      </c>
+      <c r="G88" s="13">
+        <v>3</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="13">
+        <v>4</v>
+      </c>
+      <c r="D89" s="13">
+        <v>5</v>
+      </c>
+      <c r="E89" s="13">
+        <v>4</v>
+      </c>
+      <c r="F89" s="13">
+        <v>4</v>
+      </c>
+      <c r="G89" s="13">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8">
+        <f>SUM(C78:C89)</f>
+        <v>32</v>
+      </c>
+      <c r="D90" s="8">
+        <f>SUM(D78:D89)</f>
+        <v>33</v>
+      </c>
+      <c r="E90" s="8">
+        <f>SUM(E78:E89)</f>
+        <v>33</v>
+      </c>
+      <c r="F90" s="8">
+        <f>SUM(F78:F89)</f>
+        <v>33</v>
+      </c>
+      <c r="G90" s="8">
+        <f>SUM(G78:G89)</f>
+        <v>33</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A91" s="47"/>
+      <c r="B91" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A92" s="47"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A93" s="47"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A94" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A95" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A96" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A97" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A98" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A99" s="47"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A100" s="47"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A101" s="47"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A104" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="15">
+        <f>PRODUCT(C90:G90)</f>
+        <v>37949472</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="14">
+        <f>PRODUCT(C78:G78)</f>
+        <v>1</v>
+      </c>
+      <c r="C107" s="15">
+        <f>PRODUCT(C78:F78)*SUM(G81:G89)-(PRODUCT(C78:F78)*G81)</f>
+        <v>27</v>
+      </c>
+      <c r="D107" s="15">
+        <f>PRODUCT(C78:E78)*SUM(F86:F89)*SUM(G78:G89)+(PRODUCT(C78:E78)*F79*SUM(G78:G89))-(PRODUCT(C78:E78)*F86*SUM(G78,G86))-(PRODUCT(C78:E78)*F87*SUM(G78,G87))</f>
+        <v>530</v>
+      </c>
+      <c r="E107" s="15">
+        <f>PRODUCT(C78:D78)*E79*(SUM(F78:F89))*(SUM(G78:G89))</f>
+        <v>1089</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" ref="F107:F116" si="0">SUM(B107:E107)</f>
+        <v>1647</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="14">
+        <f t="array" ref="B108">(C81+C78)*(D81+D78)*(E81+E78)*(F81+F78)*(G81+G78)-PRODUCT(C78:G78)</f>
+        <v>431</v>
+      </c>
+      <c r="C108" s="15">
+        <f>(C81+C78)*(D81+D78)*(E81+E78)*(F81+F78)*SUM(G82:G89)-(PRODUCT(C78:F78)*SUM(G82:G89))</f>
+        <v>2889</v>
+      </c>
+      <c r="D108" s="15">
+        <f>PRODUCT(C81:E81)*SUM(F82:F89)*SUM(G78:G89)+C81*D81*E78*SUM(F82:F89)*SUM(G78:G89)+C81*D78*E78*SUM(F82:F89)*SUM(G78:G89)+C78*D81*E81*SUM(F82:F89)*SUM(G78:G89)+C78*D78*E81*SUM(F82:F89)*SUM(G78:G89)+C81*D78*E81*SUM(F82:F89)*SUM(G78:G89)+C78*D81*E78*SUM(F82:F89)*SUM(G78:G89)</f>
+        <v>32340</v>
+      </c>
+      <c r="E108" s="15">
+        <f>(C78*D81*SUM(E82:E89)*SUM(F78:F89)*SUM(G78:G89))+(C81*D78*SUM(E82:E89)*SUM(F78:F89)*SUM(G78:G89))+(C81*D81*SUM(E82:E89)*SUM(F78:F89)*SUM(G78:G89))</f>
+        <v>335412</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="0"/>
+        <v>371072</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="14">
+        <f>(C82+C78)*(D82+D78)*(E82+E78)*(F82+F78)*(G82+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G82)</f>
+        <v>955</v>
+      </c>
+      <c r="C109" s="15">
+        <f>(C82+C78)*(D82+D78)*(E82+E78)*(F82+F78)*SUM(G81,G83:G89)-(PRODUCT(C78:F78))-(PRODUCT(C78:F78)*(SUM(G81,G83:G89)))</f>
+        <v>4965</v>
+      </c>
+      <c r="D109" s="15">
+        <f>PRODUCT(C82:E82)*SUM(F81,F83:F89)*SUM(G78:G89)+C82*D82*E78*SUM(F81,F83:F89)*SUM(G78:G89)+C82*D78*E78*SUM(F81,F83:F89)*SUM(G78:G89)+C78*D82*E82*SUM(F81,F83:F89)*SUM(G78:G89)+C78*D78*E82*SUM(F81,F83:F89)*SUM(G78:G89)+C82*D78*E82*SUM(F81,F83:F89)*SUM(G78:G89)+C78*D82*E78*SUM(F81,F83:F89)*SUM(G78:G89)</f>
+        <v>41877</v>
+      </c>
+      <c r="E109" s="15">
+        <f>(C78*D82*SUM(E81,E83:E89)*SUM(F78:F89)*SUM(G78:G89))+(C82*D78*SUM(E81,E83:E89)*SUM(F78:F89)*SUM(G78:G89))+(C82*D82*SUM(E81,E83:E89)*SUM(F78:F89)*SUM(G78:G89))</f>
+        <v>323433</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="0"/>
+        <v>371230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="14">
+        <f>(C83+C78)*(D83+D78)*(E83+E78)*(F83+F78)*(G83+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G83)</f>
+        <v>764</v>
+      </c>
+      <c r="C110" s="15">
+        <f>(C83+C78)*(D83+D78)*(E83+E78)*(F83+F78)*SUM(G81:G82,G84:G89)-PRODUCT(C78:F78)-(PRODUCT(C78:F78)*SUM(G81:G82,G84:G89))</f>
+        <v>5156</v>
+      </c>
+      <c r="D110" s="15">
+        <f>PRODUCT(C83:E83)*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C83*D83*E78*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C83*D78*E78*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C78*D83*E83*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C78*D78*E83*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C83*D78*E83*SUM(F81:F82,F84:F89)*SUM(G78:G89)+C78*D83*E78*SUM(F81:F82,F84:F89)*SUM(G78:G89)</f>
+        <v>58212</v>
+      </c>
+      <c r="E110" s="15">
+        <f>(C78*D83*SUM(E81:E82,E84:E89)*SUM(F78:F89)*SUM(G78:G89))+(C83*D78*SUM(E81:E82,E84:E89)*SUM(F78:F89)*SUM(G78:G89))+(C83*D83*SUM(E81:E82,E84:E89)*SUM(F78:F89)*SUM(G78:G89))</f>
+        <v>441045</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="0"/>
+        <v>505177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="14">
+        <f>(C84+C78)*(D84+D78)*(E84+E78)*(F84+F78)*(G84+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G84)</f>
+        <v>1595</v>
+      </c>
+      <c r="C111" s="15">
+        <f>(C84+C78)*(D84+D78)*(E84+E78)*(F84+F78)*SUM(G81:G83,G85:G89)-(PRODUCT(C78:F78))-(PRODUCT(C78:F78)*(SUM(G81:G83,G85:G89)))</f>
+        <v>8293</v>
+      </c>
+      <c r="D111" s="15">
+        <f>PRODUCT(C84:E84)*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C84*D84*E78*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C84*D78*E78*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C78*D84*E84*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C78*D78*E84*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C84*D78*E84*SUM(F81:F83,F85:F89)*SUM(G78:G89)+C78*D84*E78*SUM(F81:F83,F85:F89)*SUM(G78:G89)</f>
+        <v>54054</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="15">
+        <f t="shared" si="0"/>
+        <v>63942</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="14">
+        <f>(C85+C78)*(D85+D78)*(E85+E78)*(F85+F78)*(G85+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G85)</f>
+        <v>956</v>
+      </c>
+      <c r="C112" s="15">
+        <f>(C85+C78)*(D85+D78)*(E85+E78)*(F85+F78)*SUM(G81:G84,G86:G89)-(PRODUCT(C78:F78)*SUM(G81:G84,G86:G89))</f>
+        <v>6453</v>
+      </c>
+      <c r="D112" s="15">
+        <f>PRODUCT(C85:E85)*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C85*D85*E78*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C85*D78*E78*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C78*D85*E85*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C78*D78*E85*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C85*D78*E85*SUM(F81:F84,F86:F89)*SUM(G78:G89)+C78*D85*E78*SUM(F81:F84,F86:F89)*SUM(G78:G89)</f>
+        <v>52569</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="0"/>
+        <v>59978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" s="14">
+        <f>(C86+C78)*(D86+D78)*(E86+E78)*(F86+F78)*(G86+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G86)</f>
+        <v>1995</v>
+      </c>
+      <c r="C113" s="15">
+        <f>(C86+C78)*(D86+D78)*(E86+E78)*(F86+F78)*SUM(G81:G85,G87:G89)-(PRODUCT(C78:F78)*SUM(G81:G85,G87:G89))-(PRODUCT(C78:E78)*F86*SUM(G81:G85,G87:G89))</f>
+        <v>10296</v>
+      </c>
+      <c r="D113" s="15">
+        <f>PRODUCT(C86:E86)*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C86*D86*E78*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C86*D78*E78*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C78*D86*E86*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C78*D78*E86*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C86*D78*E86*SUM(F81:F85,F87:F89)*SUM(G78:G89)+C78*D86*E78*SUM(F81:F85,F87:F89)*SUM(G78:G89)</f>
+        <v>88209</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="0"/>
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="14">
+        <f>(C87+C78)*(D87+D78)*(E87+E78)*(F87+F78)*(G87+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:G78)*G87)</f>
+        <v>1996</v>
+      </c>
+      <c r="C114" s="15">
+        <f>(C87+C78)*(D87+D78)*(E87+E78)*(F87+F78)*SUM(G81:G86,G88:G89)-(PRODUCT(C78:F78)*SUM(G81:G86,G88:G89))-(PRODUCT(C78:E78)*F87*SUM(G81:G86,G88:G89))</f>
+        <v>13365</v>
+      </c>
+      <c r="D114" s="15">
+        <f>PRODUCT(C87:E87)*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C87*D87*E78*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C87*D78*E78*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C78*D87*E87*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C78*D78*E87*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C87*D78*E87*SUM(F81:F86,F88:F89)*SUM(G78:G89)+C78*D87*E78*SUM(F81:F86,F88:F89)*SUM(G78:G89)</f>
+        <v>84942</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="0"/>
+        <v>100303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A115" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="14">
+        <f>(C88+C78)*(D88+D78)*(E88+E78)*(F88+F78)*(G88+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:F78)*G88)-(PRODUCT(C78:E78)*F88*SUM(G78,G88))</f>
+        <v>2976</v>
+      </c>
+      <c r="C115" s="15">
+        <f>(C88+C78)*(D88+D78)*(E88+E78)*(F88+F78)*SUM(G81:G87,G89:G89)-(PRODUCT(C78:F78)*SUM(G81:G87,G89:G89))-PRODUCT(C78:E78*F88*SUM(G81:G87,G89:G89))</f>
+        <v>20088</v>
+      </c>
+      <c r="D115" s="15">
+        <f>PRODUCT(C88:E88)*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C88*D88*E78*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C88*D78*E78*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C78*D88*E88*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C78*D78*E88*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C88*D78*E88*SUM(F81:F87,F89:F89)*SUM(G78:G89)+C78*D88*E78*SUM(F81:F87,F89:F89)*SUM(G78:G89)</f>
+        <v>102300</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="0"/>
+        <v>125364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="14">
+        <f>(C89+C78)*(D89+D78)*(E89+E78)*(F89+F78)*(G89+G78)-PRODUCT(C78:G78)-(PRODUCT(C78:F78)*G89)-(PRODUCT(C78:E78)*(F89*SUM(G78,G89)))</f>
+        <v>2980</v>
+      </c>
+      <c r="C116" s="15">
+        <f>(C89+C78)*(D89+D78)*(E89+E78)*(F89+F78)*SUM(G81:G88,G79)-(PRODUCT(C78:F78)*SUM(G81:G88,G79))-(PRODUCT(C78:E78)*F89*(SUM(G81:G88,G79)))</f>
+        <v>20860</v>
+      </c>
+      <c r="D116" s="15">
+        <f>PRODUCT(C89:E89)*SUM(F81:F88,F79)*SUM(G78:G89)+C89*D89*E78*SUM(F81:F88,F79)*SUM(G78:G89)+C89*D78*E78*SUM(F81:F88,F79)*SUM(G78:G89)+C78*D89*E89*SUM(F81:F88,F79)*SUM(G78:G89)+C78*D78*E89*SUM(F81:F88,F79)*SUM(G78:G89)+C89*D78*E89*SUM(F81:F88,F79)*SUM(G78:G89)+C78*D89*E78*SUM(F81:F88,F79)*SUM(G78:G89)</f>
+        <v>132759</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="0"/>
+        <v>156599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A117" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="17">
+        <f t="shared" ref="B117:F117" si="1">SUM(B107:B116)</f>
+        <v>14649</v>
+      </c>
+      <c r="C117" s="17">
+        <f t="shared" si="1"/>
+        <v>92392</v>
+      </c>
+      <c r="D117" s="17">
+        <f t="shared" si="1"/>
+        <v>647792</v>
+      </c>
+      <c r="E117" s="17">
+        <f t="shared" si="1"/>
+        <v>1100979</v>
+      </c>
+      <c r="F117" s="17">
+        <f t="shared" si="1"/>
+        <v>1855812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="27">
+        <f>B107/B104</f>
+        <v>2.6350827753282047E-8</v>
+      </c>
+      <c r="C123" s="27">
+        <f>C107/B104</f>
+        <v>7.1147234933861535E-7</v>
+      </c>
+      <c r="D123" s="27">
+        <f>D107/B104</f>
+        <v>1.3965938709239486E-5</v>
+      </c>
+      <c r="E123" s="27">
+        <f>E107/B104</f>
+        <v>2.869605142332415E-5</v>
+      </c>
+      <c r="F123" s="27">
+        <f t="shared" ref="F123:F132" si="2">SUM(B123:E123)</f>
+        <v>4.3399813309655533E-5</v>
+      </c>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="27">
+        <f>B108/B104</f>
+        <v>1.1357206761664562E-5</v>
+      </c>
+      <c r="C124" s="27">
+        <f>C108/B104</f>
+        <v>7.6127541379231834E-5</v>
+      </c>
+      <c r="D124" s="27">
+        <f>D108/B104</f>
+        <v>8.5218576954114141E-4</v>
+      </c>
+      <c r="E124" s="27">
+        <f>E108/B104</f>
+        <v>8.8383838383838381E-3</v>
+      </c>
+      <c r="F124" s="27">
+        <f t="shared" si="2"/>
+        <v>9.778054356065876E-3</v>
+      </c>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="27">
+        <f>B109/B104</f>
+        <v>2.5165040504384356E-5</v>
+      </c>
+      <c r="C125" s="27">
+        <f>C109/B104</f>
+        <v>1.3083185979504536E-4</v>
+      </c>
+      <c r="D125" s="27">
+        <f>D109/B104</f>
+        <v>1.1034936138241923E-3</v>
+      </c>
+      <c r="E125" s="27">
+        <f>E109/B104</f>
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="F125" s="27">
+        <f t="shared" si="2"/>
+        <v>9.7822177868508945E-3</v>
+      </c>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="27">
+        <f>B110/B104</f>
+        <v>2.0132032403507486E-5</v>
+      </c>
+      <c r="C126" s="27">
+        <f>C110/B104</f>
+        <v>1.3586486789592223E-4</v>
+      </c>
+      <c r="D126" s="27">
+        <f>D110/B104</f>
+        <v>1.5339343851740546E-3</v>
+      </c>
+      <c r="E126" s="27">
+        <f>E110/B104</f>
+        <v>1.162190082644628E-2</v>
+      </c>
+      <c r="F126" s="27">
+        <f t="shared" si="2"/>
+        <v>1.3311832111919764E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="27">
+        <f>B111/B104</f>
+        <v>4.2029570266484866E-5</v>
+      </c>
+      <c r="C127" s="27">
+        <f>C111/B104</f>
+        <v>2.1852741455796802E-4</v>
+      </c>
+      <c r="D127" s="27">
+        <f>D111/B104</f>
+        <v>1.4243676433759078E-3</v>
+      </c>
+      <c r="E127" s="19">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27">
+        <f t="shared" si="2"/>
+        <v>1.6849246282003606E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A128" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="27">
+        <f>B112/B104</f>
+        <v>2.5191391332137637E-5</v>
+      </c>
+      <c r="C128" s="27">
+        <f>C112/B104</f>
+        <v>1.7004189149192906E-4</v>
+      </c>
+      <c r="D128" s="27">
+        <f>D112/B104</f>
+        <v>1.385236664162284E-3</v>
+      </c>
+      <c r="E128" s="19">
+        <v>0</v>
+      </c>
+      <c r="F128" s="27">
+        <f t="shared" si="2"/>
+        <v>1.5804699469863506E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A129" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="27">
+        <f>B113/B104</f>
+        <v>5.2569901367797687E-5</v>
+      </c>
+      <c r="C129" s="27">
+        <f>C113/B104</f>
+        <v>2.7130812254779195E-4</v>
+      </c>
+      <c r="D129" s="27">
+        <f>D113/B104</f>
+        <v>2.3243801652892563E-3</v>
+      </c>
+      <c r="E129" s="19">
+        <v>0</v>
+      </c>
+      <c r="F129" s="27">
+        <f t="shared" si="2"/>
+        <v>2.6482581892048459E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="27">
+        <f>B114/B104</f>
+        <v>5.2596252195550971E-5</v>
+      </c>
+      <c r="C130" s="27">
+        <f>C114/B104</f>
+        <v>3.5217881292261456E-4</v>
+      </c>
+      <c r="D130" s="27">
+        <f>D114/B104</f>
+        <v>2.2382920110192838E-3</v>
+      </c>
+      <c r="E130" s="19">
+        <v>0</v>
+      </c>
+      <c r="F130" s="27">
+        <f t="shared" si="2"/>
+        <v>2.6430670761374495E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A131" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="27">
+        <f>B115/B104</f>
+        <v>7.8420063393767379E-5</v>
+      </c>
+      <c r="C131" s="27">
+        <f>C115/B104</f>
+        <v>5.2933542790792982E-4</v>
+      </c>
+      <c r="D131" s="27">
+        <f>D115/B104</f>
+        <v>2.6956896791607535E-3</v>
+      </c>
+      <c r="E131" s="19">
+        <v>0</v>
+      </c>
+      <c r="F131" s="27">
+        <f t="shared" si="2"/>
+        <v>3.3034451704624509E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="27">
+        <f>B116/B104</f>
+        <v>7.8525466704780505E-5</v>
+      </c>
+      <c r="C132" s="27">
+        <f>C116/B104</f>
+        <v>5.4967826693346356E-4</v>
+      </c>
+      <c r="D132" s="27">
+        <f>D116/B104</f>
+        <v>3.4983095416979714E-3</v>
+      </c>
+      <c r="E132" s="19">
+        <v>0</v>
+      </c>
+      <c r="F132" s="27">
+        <f t="shared" si="2"/>
+        <v>4.1265132753362157E-3</v>
+      </c>
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A133" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="21">
+        <f t="shared" ref="B133:F133" si="3">SUM(B123:B132)</f>
+        <v>3.8601327575782873E-4</v>
+      </c>
+      <c r="C133" s="21">
+        <f t="shared" si="3"/>
+        <v>2.4346056777812351E-3</v>
+      </c>
+      <c r="D133" s="21">
+        <f t="shared" si="3"/>
+        <v>1.7069855411954084E-2</v>
+      </c>
+      <c r="E133" s="21">
+        <f t="shared" si="3"/>
+        <v>2.9011707988980714E-2</v>
+      </c>
+      <c r="F133" s="21">
+        <f t="shared" si="3"/>
+        <v>4.8902182354473869E-2</v>
+      </c>
+      <c r="G133" s="22">
+        <f>F133</f>
+        <v>4.8902182354473869E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="27">
+        <f>B123*D56</f>
+        <v>1.3175413876641024E-4</v>
+      </c>
+      <c r="C138" s="27">
+        <f>C123*E56</f>
+        <v>3.5573617466930766E-4</v>
+      </c>
+      <c r="D138" s="27">
+        <f>D123*F56</f>
+        <v>6.9829693546197432E-4</v>
+      </c>
+      <c r="E138" s="27">
+        <f>E123*G56</f>
+        <v>1.4348025711662075E-4</v>
+      </c>
+      <c r="F138" s="27">
+        <f t="shared" ref="F138:F147" si="4">SUM(B138:E138)</f>
+        <v>1.329267506014313E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="27">
+        <f t="shared" ref="B139:B147" si="5">B124*D59</f>
+        <v>1.1357206761664563E-2</v>
+      </c>
+      <c r="C139" s="27">
+        <f t="shared" ref="C139:C147" si="6">C124*E59</f>
+        <v>1.5225508275846367E-2</v>
+      </c>
+      <c r="D139" s="27">
+        <f t="shared" ref="D139:D147" si="7">D124*F59</f>
+        <v>3.4087430781645653E-2</v>
+      </c>
+      <c r="E139" s="27">
+        <f t="shared" ref="E139:E147" si="8">E124*G59</f>
+        <v>2.6515151515151512E-2</v>
+      </c>
+      <c r="F139" s="27">
+        <f t="shared" si="4"/>
+        <v>8.7185297334308104E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="27">
+        <f t="shared" si="5"/>
+        <v>1.2582520252192178E-2</v>
+      </c>
+      <c r="C140" s="27">
+        <f t="shared" si="6"/>
+        <v>1.9624778969256806E-2</v>
+      </c>
+      <c r="D140" s="27">
+        <f t="shared" si="7"/>
+        <v>3.3104808414725767E-2</v>
+      </c>
+      <c r="E140" s="27">
+        <f t="shared" si="8"/>
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="F140" s="27">
+        <f t="shared" si="4"/>
+        <v>8.2357562181629304E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A141" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="27">
+        <f t="shared" si="5"/>
+        <v>6.0396097210522462E-3</v>
+      </c>
+      <c r="C141" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3586486789592223E-2</v>
+      </c>
+      <c r="D141" s="27">
+        <f t="shared" si="7"/>
+        <v>3.8348359629351361E-2</v>
+      </c>
+      <c r="E141" s="27">
+        <f t="shared" si="8"/>
+        <v>2.3243801652892561E-2</v>
+      </c>
+      <c r="F141" s="27">
+        <f t="shared" si="4"/>
+        <v>8.1218257792888382E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A142" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="27">
+        <f t="shared" si="5"/>
+        <v>8.4059140532969732E-3</v>
+      </c>
+      <c r="C142" s="27">
+        <f t="shared" si="6"/>
+        <v>1.6389556091847602E-2</v>
+      </c>
+      <c r="D142" s="27">
+        <f t="shared" si="7"/>
+        <v>2.8487352867518155E-2</v>
+      </c>
+      <c r="E142" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="27">
+        <f t="shared" si="4"/>
+        <v>5.3282823012662732E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="27">
+        <f t="shared" si="5"/>
+        <v>5.0382782664275278E-3</v>
+      </c>
+      <c r="C143" s="27">
+        <f t="shared" si="6"/>
+        <v>1.275314186189468E-2</v>
+      </c>
+      <c r="D143" s="27">
+        <f t="shared" si="7"/>
+        <v>2.7704733283245679E-2</v>
+      </c>
+      <c r="E143" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="27">
+        <f t="shared" si="4"/>
+        <v>4.5496153411567888E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="27">
+        <f t="shared" si="5"/>
+        <v>5.2569901367797685E-3</v>
+      </c>
+      <c r="C144" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3565406127389597E-2</v>
+      </c>
+      <c r="D144" s="27">
+        <f t="shared" si="7"/>
+        <v>3.4865702479338845E-2</v>
+      </c>
+      <c r="E144" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="27">
+        <f t="shared" si="4"/>
+        <v>5.368809874350821E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="27">
+        <f t="shared" si="5"/>
+        <v>5.2596252195550967E-3</v>
+      </c>
+      <c r="C145" s="27">
+        <f t="shared" si="6"/>
+        <v>1.7608940646130729E-2</v>
+      </c>
+      <c r="D145" s="27">
+        <f t="shared" si="7"/>
+        <v>3.3574380165289255E-2</v>
+      </c>
+      <c r="E145" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="27">
+        <f t="shared" si="4"/>
+        <v>5.6442946030975077E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A146" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="27">
+        <f t="shared" si="5"/>
+        <v>3.9210031696883686E-3</v>
+      </c>
+      <c r="C146" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3233385697698245E-2</v>
+      </c>
+      <c r="D146" s="27">
+        <f t="shared" si="7"/>
+        <v>2.6956896791607534E-2</v>
+      </c>
+      <c r="E146" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="27">
+        <f t="shared" si="4"/>
+        <v>4.4111285658994151E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="27">
+        <f t="shared" si="5"/>
+        <v>3.926273335239025E-3</v>
+      </c>
+      <c r="C147" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3741956673336589E-2</v>
+      </c>
+      <c r="D147" s="27">
+        <f t="shared" si="7"/>
+        <v>3.4983095416979713E-2</v>
+      </c>
+      <c r="E147" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="27">
+        <f t="shared" si="4"/>
+        <v>5.2651325425555326E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="21">
+        <f t="shared" ref="B148:F148" si="9">SUM(B138:B147)</f>
+        <v>6.1919175054662157E-2</v>
+      </c>
+      <c r="C148" s="21">
+        <f t="shared" si="9"/>
+        <v>0.13608489730766213</v>
+      </c>
+      <c r="D148" s="21">
+        <f t="shared" si="9"/>
+        <v>0.29281105676516389</v>
+      </c>
+      <c r="E148" s="21">
+        <f t="shared" si="9"/>
+        <v>6.6947887970615239E-2</v>
+      </c>
+      <c r="F148" s="21">
+        <f t="shared" si="9"/>
+        <v>0.55776301709810339</v>
+      </c>
+      <c r="G148" s="22">
+        <f>F148</f>
+        <v>0.55776301709810339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A153" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" s="7">
+        <f>C79</f>
+        <v>1</v>
+      </c>
+      <c r="C153" s="7">
+        <f>D79</f>
+        <v>1</v>
+      </c>
+      <c r="D153" s="7">
+        <f>E79</f>
+        <v>1</v>
+      </c>
+      <c r="E153" s="7">
+        <f>F79</f>
+        <v>1</v>
+      </c>
+      <c r="F153" s="7">
+        <f>G79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A154" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="7">
+        <f t="shared" ref="B154:F154" si="10">C90</f>
+        <v>32</v>
+      </c>
+      <c r="C154" s="7">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="D154" s="7">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="E154" s="7">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="F154" s="7">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A155" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="7">
+        <f t="shared" ref="B155:F155" si="11">3*B153/B154</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C155" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D155" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E155" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F155" s="7">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I159" s="25">
+        <f>PRODUCT(B155:E155)</f>
+        <v>7.0435762584522912E-5</v>
+      </c>
+      <c r="J159" s="25">
+        <f>PRODUCT(B155:D155)</f>
+        <v>7.7479338842975198E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A160" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="23">
+        <v>100</v>
+      </c>
+      <c r="C160" s="23">
+        <v>25</v>
+      </c>
+      <c r="D160" s="23">
+        <v>5</v>
+      </c>
+      <c r="E160" s="15"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A161" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="24">
+        <v>486</v>
+      </c>
+      <c r="C161" s="24">
+        <v>20898</v>
+      </c>
+      <c r="D161" s="24">
+        <v>353916</v>
+      </c>
+      <c r="E161" s="15">
+        <f>B104</f>
+        <v>37949472</v>
+      </c>
+      <c r="H161" s="25">
+        <f>PRODUCT(B155:F155)</f>
+        <v>6.403251144047538E-6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A162" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="26">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C162" s="26">
+        <v>6.2299999999999996E-4</v>
+      </c>
+      <c r="D162" s="26">
+        <v>1.0548E-2</v>
+      </c>
+      <c r="E162" s="27">
+        <f t="shared" ref="E162:E163" si="12">SUM(B162:D162)</f>
+        <v>1.1185E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A163" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="7">
+        <f t="shared" ref="B163:D163" si="13">B160*B162</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="C163" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5574999999999999E-2</v>
+      </c>
+      <c r="D163" s="7">
+        <f t="shared" si="13"/>
+        <v>5.2740000000000002E-2</v>
+      </c>
+      <c r="E163" s="27">
+        <f t="shared" si="12"/>
+        <v>6.9714999999999999E-2</v>
+      </c>
+      <c r="F163" s="22">
+        <f>E163</f>
+        <v>6.9714999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="165" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="166" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A166" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A167" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A168" s="27">
+        <f>E162</f>
+        <v>1.1185E-2</v>
+      </c>
+      <c r="B168" s="13">
+        <v>10</v>
+      </c>
+      <c r="C168" s="27">
+        <f>F148</f>
+        <v>0.55776301709810339</v>
+      </c>
+      <c r="D168" s="7">
+        <f>3*(C168+E163)</f>
+        <v>1.8824340512943101</v>
+      </c>
+      <c r="E168" s="7">
+        <f>B168/(1-B168*A168)</f>
+        <v>11.259359342453415</v>
+      </c>
+      <c r="F168" s="7">
+        <f>E168*D168</f>
+        <v>21.19500142199302</v>
+      </c>
+      <c r="G168" s="7">
+        <f>A168*F168</f>
+        <v>0.23706609090499192</v>
+      </c>
+      <c r="H168" s="22">
+        <f>G168</f>
+        <v>0.23706609090499192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A171" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A172" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A173" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B173" s="28">
+        <f>G148</f>
+        <v>0.55776301709810339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A174" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="28">
+        <f>F163</f>
+        <v>6.9714999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A175" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B175" s="28">
+        <f>H168</f>
+        <v>0.23706609090499192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A176" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B176" s="28">
+        <f>SUM(B173:B175)</f>
+        <v>0.86454410800309534</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4886,12 +7485,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C60" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -6865,8 +9464,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -7422,8 +10021,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7464,14 +10063,14 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7505,18 +10104,18 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="2:12" ht="13.8">
       <c r="B5" s="34" t="s">
@@ -7770,12 +10369,12 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="D16" s="59">
+      <c r="D16" s="63">
         <f xml:space="preserve"> $J$6 * $L$7 * $L$8 * $L$9 * $L$10</f>
         <v>4.6722350581999738E-7</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
     </row>
@@ -7790,12 +10389,12 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="D20" s="59">
+      <c r="D20" s="63">
         <f xml:space="preserve"> $L$6 * $L$7 * $L$8 * $L$9 * $L$10</f>
         <v>1.4483928680419922E-5</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="22" spans="3:6" ht="13.8">
       <c r="D22" s="31" t="s">
@@ -7803,11 +10402,11 @@
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="D23" s="60">
+      <c r="D23" s="64">
         <f>J6</f>
         <v>6.0483870967741934E-3</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="31" t="s">
         <v>85</v>
       </c>
@@ -7841,7 +10440,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
